--- a/2019/D/code/floor.xlsx
+++ b/2019/D/code/floor.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBF01D7-17A9-4814-8E66-79079B878275}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="705" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1308" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,13 +27,91 @@
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s02</t>
+  </si>
+  <si>
+    <t>s03</t>
+  </si>
+  <si>
+    <t>s04</t>
+  </si>
+  <si>
+    <t>s05</t>
+  </si>
+  <si>
+    <t>s06</t>
+  </si>
+  <si>
+    <t>s07</t>
+  </si>
+  <si>
+    <t>s08</t>
+  </si>
+  <si>
+    <t>s09</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>s12</t>
+  </si>
+  <si>
+    <t>s13</t>
+  </si>
+  <si>
+    <t>s14</t>
+  </si>
+  <si>
+    <t>s15</t>
+  </si>
+  <si>
+    <t>s16</t>
+  </si>
+  <si>
+    <t>s17</t>
+  </si>
+  <si>
+    <t>s18</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>s22</t>
+  </si>
+  <si>
+    <t>s23</t>
+  </si>
+  <si>
+    <t>s24</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -103,7 +182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -178,6 +257,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -213,6 +309,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,19 +501,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="C160" sqref="C160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.875" style="1"/>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -408,14 +522,13 @@
         <v>952</v>
       </c>
       <c r="C1">
-        <f>D1*13*13</f>
         <v>507</v>
       </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -423,14 +536,13 @@
         <v>944</v>
       </c>
       <c r="C2">
-        <f>D2*13*13</f>
         <v>338</v>
       </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D2" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -438,14 +550,13 @@
         <v>940</v>
       </c>
       <c r="C3">
-        <f>D3*13*13</f>
         <v>338</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D3" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -453,14 +564,13 @@
         <v>936</v>
       </c>
       <c r="C4">
-        <f>D4*13*13</f>
         <v>338</v>
       </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D4" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -468,14 +578,13 @@
         <v>931</v>
       </c>
       <c r="C5">
-        <f>D5*13*13</f>
         <v>845</v>
       </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D5" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -483,14 +592,13 @@
         <v>924</v>
       </c>
       <c r="C6">
-        <f>D6*13*13</f>
         <v>1183</v>
       </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D6" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -498,14 +606,13 @@
         <v>917</v>
       </c>
       <c r="C7">
-        <f>D7*13*13</f>
         <v>845</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D7" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -513,14 +620,13 @@
         <v>913</v>
       </c>
       <c r="C8">
-        <f>D8*13*13</f>
         <v>507</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D8" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -528,14 +634,13 @@
         <v>912</v>
       </c>
       <c r="C9">
-        <f>D9*13*13</f>
         <v>507</v>
       </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D9" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -543,14 +648,13 @@
         <v>909</v>
       </c>
       <c r="C10">
-        <f>D10*13*13</f>
         <v>169</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D10" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -558,14 +662,13 @@
         <v>902</v>
       </c>
       <c r="C11">
-        <f>D11*13*13</f>
         <v>338</v>
       </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D11" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -573,14 +676,13 @@
         <v>900</v>
       </c>
       <c r="C12">
-        <f>D12*13*13</f>
         <v>169</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D12" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -588,14 +690,13 @@
         <v>864</v>
       </c>
       <c r="C13">
-        <f>D13*13*13</f>
         <v>338</v>
       </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D13" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -603,14 +704,13 @@
         <v>855</v>
       </c>
       <c r="C14">
-        <f>D14*13*13</f>
         <v>338</v>
       </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D14" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -618,14 +718,13 @@
         <v>848</v>
       </c>
       <c r="C15">
-        <f>D15*13*13</f>
         <v>338</v>
       </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D15" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -633,14 +732,13 @@
         <v>845</v>
       </c>
       <c r="C16">
-        <f>D16*13*13</f>
         <v>338</v>
       </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D16" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -648,14 +746,13 @@
         <v>843</v>
       </c>
       <c r="C17">
-        <f>D17*13*13</f>
         <v>338</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -663,14 +760,13 @@
         <v>836</v>
       </c>
       <c r="C18">
-        <f>D18*13*13</f>
         <v>338</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D18" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -678,14 +774,13 @@
         <v>835</v>
       </c>
       <c r="C19">
-        <f>D19*13*13</f>
         <v>338</v>
       </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D19" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -693,14 +788,13 @@
         <v>830</v>
       </c>
       <c r="C20">
-        <f>D20*13*13</f>
         <v>169</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D20" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -710,11 +804,11 @@
       <c r="C21">
         <v>100</v>
       </c>
-      <c r="D21">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D21" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -724,8 +818,11 @@
       <c r="C22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D22" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -733,14 +830,13 @@
         <v>811</v>
       </c>
       <c r="C23">
-        <f>D23*13*13</f>
         <v>169</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D23" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -748,14 +844,13 @@
         <v>803</v>
       </c>
       <c r="C24">
-        <f>D24*13*13</f>
         <v>169</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D24" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -763,14 +858,13 @@
         <v>802</v>
       </c>
       <c r="C25">
-        <f>D25*13*13</f>
         <v>169</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D25" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -778,14 +872,13 @@
         <v>801</v>
       </c>
       <c r="C26">
-        <f>D26*13*13</f>
         <v>338</v>
       </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D26" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -793,14 +886,13 @@
         <v>800</v>
       </c>
       <c r="C27">
-        <f>D27*13*13</f>
         <v>169</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D27" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -810,8 +902,11 @@
       <c r="C28">
         <v>160</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D28" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -821,8 +916,11 @@
       <c r="C29">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D29" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -832,8 +930,11 @@
       <c r="C30">
         <v>400</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D30" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -843,8 +944,11 @@
       <c r="C31">
         <v>136</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D31" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -854,8 +958,11 @@
       <c r="C32">
         <v>884</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D32" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>1</v>
       </c>
@@ -865,8 +972,11 @@
       <c r="C33">
         <v>289</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D33" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
@@ -876,8 +986,11 @@
       <c r="C34">
         <v>976</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D34" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -887,8 +1000,11 @@
       <c r="C35">
         <v>884</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D35" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
@@ -898,8 +1014,11 @@
       <c r="C36">
         <v>350</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D36" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -907,10 +1026,13 @@
         <v>711</v>
       </c>
       <c r="C37">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="2">
+        <v>977.19869706840393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1</v>
       </c>
@@ -920,8 +1042,11 @@
       <c r="C38">
         <v>700</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D38" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -931,8 +1056,11 @@
       <c r="C39">
         <v>910</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D39" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -942,8 +1070,11 @@
       <c r="C40">
         <v>910</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D40" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1</v>
       </c>
@@ -953,8 +1084,11 @@
       <c r="C41">
         <v>780</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D41" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1</v>
       </c>
@@ -962,10 +1096,13 @@
         <v>703</v>
       </c>
       <c r="C42">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="2">
+        <v>977.19869706840393</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -975,8 +1112,11 @@
       <c r="C43">
         <v>750</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D43" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -986,8 +1126,11 @@
       <c r="C44">
         <v>875</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D44" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1</v>
       </c>
@@ -997,8 +1140,11 @@
       <c r="C45">
         <v>900</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D45" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -1008,8 +1154,11 @@
       <c r="C46">
         <v>525</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D46" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -1019,8 +1168,11 @@
       <c r="C47">
         <v>350</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D47" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1</v>
       </c>
@@ -1030,8 +1182,11 @@
       <c r="C48">
         <v>255</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D48" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -1041,8 +1196,11 @@
       <c r="C49">
         <v>510</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D49" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1</v>
       </c>
@@ -1050,14 +1208,13 @@
         <v>650</v>
       </c>
       <c r="C50">
-        <f>D50*17*17</f>
         <v>578</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D50" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -1065,14 +1222,13 @@
         <v>645</v>
       </c>
       <c r="C51">
-        <f>D51*17*17</f>
         <v>867</v>
       </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D51" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1</v>
       </c>
@@ -1080,14 +1236,13 @@
         <v>641</v>
       </c>
       <c r="C52">
-        <f>D52*17*17</f>
         <v>867</v>
       </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D52" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -1095,14 +1250,13 @@
         <v>640</v>
       </c>
       <c r="C53">
-        <f>D53*17*17</f>
         <v>867</v>
       </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D53" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1</v>
       </c>
@@ -1110,14 +1264,13 @@
         <v>636</v>
       </c>
       <c r="C54">
-        <f>D54*17*17</f>
         <v>867</v>
       </c>
-      <c r="D54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D54" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -1125,14 +1278,13 @@
         <v>635</v>
       </c>
       <c r="C55">
-        <f>D55*17*17</f>
         <v>289</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D55" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -1140,14 +1292,13 @@
         <v>633</v>
       </c>
       <c r="C56">
-        <f>D56*17*17</f>
         <v>289</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D56" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1</v>
       </c>
@@ -1155,14 +1306,13 @@
         <v>632</v>
       </c>
       <c r="C57">
-        <f>D57*17*17</f>
         <v>289</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D57" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1</v>
       </c>
@@ -1170,14 +1320,13 @@
         <v>617</v>
       </c>
       <c r="C58">
-        <f>D58*17*17</f>
         <v>289</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D58" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -1185,14 +1334,13 @@
         <v>606</v>
       </c>
       <c r="C59">
-        <f>D59*17*17</f>
         <v>289</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D59" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1</v>
       </c>
@@ -1200,14 +1348,13 @@
         <v>605</v>
       </c>
       <c r="C60">
-        <f>D60*17*17</f>
         <v>289</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D60" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1</v>
       </c>
@@ -1215,14 +1362,13 @@
         <v>601</v>
       </c>
       <c r="C61">
-        <f>D61*17*17</f>
         <v>578</v>
       </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D61" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1</v>
       </c>
@@ -1230,14 +1376,13 @@
         <v>600</v>
       </c>
       <c r="C62">
-        <f>D62*17*17</f>
         <v>289</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D62" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -1245,14 +1390,13 @@
         <v>564</v>
       </c>
       <c r="C63">
-        <f>D63*17*17</f>
         <v>578</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D63" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1</v>
       </c>
@@ -1260,14 +1404,13 @@
         <v>558</v>
       </c>
       <c r="C64">
-        <f>D64*17*17</f>
         <v>578</v>
       </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D64" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1</v>
       </c>
@@ -1275,14 +1418,13 @@
         <v>557</v>
       </c>
       <c r="C65">
-        <f>D65*17*17</f>
         <v>289</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D65" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1</v>
       </c>
@@ -1290,14 +1432,13 @@
         <v>552</v>
       </c>
       <c r="C66">
-        <f>D66*17*17</f>
         <v>289</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D66" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -1305,14 +1446,13 @@
         <v>548</v>
       </c>
       <c r="C67">
-        <f>D67*17*17</f>
         <v>289</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D67" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1</v>
       </c>
@@ -1320,14 +1460,13 @@
         <v>544</v>
       </c>
       <c r="C68">
-        <f>D68*17*17</f>
         <v>289</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D68" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1</v>
       </c>
@@ -1335,14 +1474,13 @@
         <v>535</v>
       </c>
       <c r="C69">
-        <f>D69*17*17</f>
         <v>289</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D69" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1</v>
       </c>
@@ -1352,11 +1490,11 @@
       <c r="C70">
         <v>230</v>
       </c>
-      <c r="D70">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D70" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -1364,14 +1502,13 @@
         <v>526</v>
       </c>
       <c r="C71">
-        <f>D71*15*15</f>
         <v>225</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D71" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1</v>
       </c>
@@ -1379,14 +1516,13 @@
         <v>519</v>
       </c>
       <c r="C72">
-        <f>D72*15*15</f>
         <v>225</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D72" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>1</v>
       </c>
@@ -1394,14 +1530,13 @@
         <v>517</v>
       </c>
       <c r="C73">
-        <f>D73*15*15</f>
         <v>450</v>
       </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D73" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -1409,14 +1544,13 @@
         <v>516</v>
       </c>
       <c r="C74">
-        <f>D74*15*15</f>
         <v>225</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D74" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>1</v>
       </c>
@@ -1424,14 +1558,13 @@
         <v>507</v>
       </c>
       <c r="C75">
-        <f>D75*15*15</f>
         <v>450</v>
       </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D75" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>1</v>
       </c>
@@ -1439,14 +1572,13 @@
         <v>505</v>
       </c>
       <c r="C76">
-        <f>D76*15*15</f>
         <v>225</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D76" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>1</v>
       </c>
@@ -1454,14 +1586,13 @@
         <v>503</v>
       </c>
       <c r="C77">
-        <f>D77*15*15</f>
-        <v>225</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+      <c r="D77" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>1</v>
       </c>
@@ -1469,14 +1600,13 @@
         <v>501</v>
       </c>
       <c r="C78">
-        <f>D78*15*15</f>
         <v>225</v>
       </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D78" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>1</v>
       </c>
@@ -1484,14 +1614,13 @@
         <v>500</v>
       </c>
       <c r="C79">
-        <f>D79*15*15</f>
         <v>225</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D79" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -1499,14 +1628,13 @@
         <v>433</v>
       </c>
       <c r="C80">
-        <f>D80*15*15</f>
         <v>450</v>
       </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D80" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -1514,14 +1642,13 @@
         <v>427</v>
       </c>
       <c r="C81">
-        <f>D81*15*15</f>
         <v>225</v>
       </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D81" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -1529,14 +1656,13 @@
         <v>424</v>
       </c>
       <c r="C82">
-        <f>D82*15*15</f>
         <v>450</v>
       </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D82" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -1544,14 +1670,13 @@
         <v>423</v>
       </c>
       <c r="C83">
-        <f>D83*15*15</f>
         <v>450</v>
       </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D83" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -1559,14 +1684,13 @@
         <v>419</v>
       </c>
       <c r="C84">
-        <f>D84*15*15</f>
         <v>2025</v>
       </c>
-      <c r="D84">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D84" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -1574,14 +1698,13 @@
         <v>418</v>
       </c>
       <c r="C85">
-        <f>D85*15*15</f>
         <v>117.00000000000001</v>
       </c>
-      <c r="D85">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D85" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -1589,14 +1712,13 @@
         <v>417</v>
       </c>
       <c r="C86">
-        <f>D86*15*15</f>
         <v>117.00000000000001</v>
       </c>
-      <c r="D86">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D86" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -1604,14 +1726,13 @@
         <v>413</v>
       </c>
       <c r="C87">
-        <f>D87*15*15</f>
         <v>117.00000000000001</v>
       </c>
-      <c r="D87">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D87" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -1619,14 +1740,13 @@
         <v>410</v>
       </c>
       <c r="C88">
-        <f>D88*15*15</f>
-        <v>117.00000000000001</v>
+        <v>245</v>
       </c>
       <c r="D88" s="2">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -1634,14 +1754,13 @@
         <v>408</v>
       </c>
       <c r="C89">
-        <f>D89*15*15</f>
         <v>225</v>
       </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D89" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -1649,14 +1768,13 @@
         <v>406</v>
       </c>
       <c r="C90">
-        <f>D90*15*15</f>
         <v>450</v>
       </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D90" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -1664,14 +1782,13 @@
         <v>405</v>
       </c>
       <c r="C91">
-        <f>D91*15*15</f>
         <v>900</v>
       </c>
-      <c r="D91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D91" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -1679,14 +1796,13 @@
         <v>403</v>
       </c>
       <c r="C92">
-        <f>D92*15*15</f>
         <v>450</v>
       </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D92" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -1694,14 +1810,13 @@
         <v>402</v>
       </c>
       <c r="C93">
-        <f>D93*15*15</f>
         <v>225</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D93" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -1709,14 +1824,13 @@
         <v>400</v>
       </c>
       <c r="C94">
-        <f>D94*15*15</f>
         <v>225</v>
       </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D94" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -1724,14 +1838,13 @@
         <v>348</v>
       </c>
       <c r="C95">
-        <f>D95*15*15</f>
         <v>225</v>
       </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D95" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -1739,14 +1852,13 @@
         <v>347</v>
       </c>
       <c r="C96">
-        <f>D96*15*15</f>
         <v>80.999999999999986</v>
       </c>
-      <c r="D96">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D96" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -1754,14 +1866,13 @@
         <v>345</v>
       </c>
       <c r="C97">
-        <f>D97*15*15</f>
-        <v>225</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+      <c r="D97" s="2">
+        <v>977.19869706840393</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -1769,14 +1880,13 @@
         <v>339</v>
       </c>
       <c r="C98">
-        <f>D98*15*15</f>
         <v>225</v>
       </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D98" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
@@ -1784,14 +1894,13 @@
         <v>338</v>
       </c>
       <c r="C99">
-        <f>D99*15*15</f>
         <v>117.00000000000001</v>
       </c>
-      <c r="D99">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D99" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -1799,14 +1908,13 @@
         <v>337</v>
       </c>
       <c r="C100">
-        <f>D100*15*15</f>
         <v>675</v>
       </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D100" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -1814,14 +1922,13 @@
         <v>328</v>
       </c>
       <c r="C101">
-        <f>D101*15*15</f>
         <v>450</v>
       </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D101" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>1</v>
       </c>
@@ -1829,14 +1936,13 @@
         <v>323</v>
       </c>
       <c r="C102">
-        <f>D102*15*15</f>
         <v>900</v>
       </c>
-      <c r="D102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D102" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -1844,14 +1950,13 @@
         <v>321</v>
       </c>
       <c r="C103">
-        <f>D103*15*15</f>
         <v>225</v>
       </c>
-      <c r="D103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D103" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -1859,14 +1964,13 @@
         <v>317</v>
       </c>
       <c r="C104">
-        <f>D104*15*15</f>
         <v>117.00000000000001</v>
       </c>
-      <c r="D104">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D104" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -1874,14 +1978,13 @@
         <v>316</v>
       </c>
       <c r="C105">
-        <f>D105*15*15</f>
         <v>675</v>
       </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D105" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -1889,14 +1992,13 @@
         <v>312</v>
       </c>
       <c r="C106">
-        <f>D106*15*15</f>
         <v>225</v>
       </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D106" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -1904,14 +2006,13 @@
         <v>308</v>
       </c>
       <c r="C107">
-        <f>D107*15*15</f>
         <v>450</v>
       </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D107" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -1919,14 +2020,13 @@
         <v>305</v>
       </c>
       <c r="C108">
-        <f>D108*15*15</f>
         <v>225</v>
       </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D108" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -1934,14 +2034,13 @@
         <v>300</v>
       </c>
       <c r="C109">
-        <f>D109*15*15</f>
         <v>675</v>
       </c>
-      <c r="D109">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D109" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -1949,14 +2048,13 @@
         <v>231</v>
       </c>
       <c r="C110">
-        <f>D110*15*15</f>
         <v>80.999999999999986</v>
       </c>
-      <c r="D110">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D110" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -1964,14 +2062,13 @@
         <v>230</v>
       </c>
       <c r="C111">
-        <f>D111*15*15</f>
-        <v>80.999999999999986</v>
-      </c>
-      <c r="D111">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+      <c r="D111" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>0</v>
       </c>
@@ -1979,14 +2076,13 @@
         <v>229</v>
       </c>
       <c r="C112">
-        <f>D112*15*15</f>
         <v>900</v>
       </c>
-      <c r="D112">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D112" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>0</v>
       </c>
@@ -1994,14 +2090,13 @@
         <v>226</v>
       </c>
       <c r="C113">
-        <f>D113*15*15</f>
         <v>117.00000000000001</v>
       </c>
-      <c r="D113">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D113" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -2009,14 +2104,13 @@
         <v>219</v>
       </c>
       <c r="C114">
-        <f>D114*15*15</f>
         <v>80.999999999999986</v>
       </c>
-      <c r="D114">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D114" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>0</v>
       </c>
@@ -2024,14 +2118,13 @@
         <v>218</v>
       </c>
       <c r="C115">
-        <f>D115*15*15</f>
         <v>225</v>
       </c>
-      <c r="D115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D115" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -2039,14 +2132,13 @@
         <v>212</v>
       </c>
       <c r="C116">
-        <f>D116*15*15</f>
         <v>225</v>
       </c>
-      <c r="D116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D116" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>0</v>
       </c>
@@ -2054,14 +2146,13 @@
         <v>208</v>
       </c>
       <c r="C117">
-        <f>D117*15*15</f>
         <v>225</v>
       </c>
-      <c r="D117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D117" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>0</v>
       </c>
@@ -2069,14 +2160,13 @@
         <v>201</v>
       </c>
       <c r="C118">
-        <f>D118*15*15</f>
         <v>225</v>
       </c>
-      <c r="D118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D118" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -2084,14 +2174,13 @@
         <v>200</v>
       </c>
       <c r="C119">
-        <f>D119*15*15</f>
         <v>225</v>
       </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D119" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>-1</v>
       </c>
@@ -2099,14 +2188,13 @@
         <v>186</v>
       </c>
       <c r="C120">
-        <f>D120*15*15</f>
         <v>450</v>
       </c>
-      <c r="D120">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D120" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>-1</v>
       </c>
@@ -2114,14 +2202,13 @@
         <v>183</v>
       </c>
       <c r="C121">
-        <f>D121*15*15</f>
         <v>450</v>
       </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D121" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>-1</v>
       </c>
@@ -2129,14 +2216,13 @@
         <v>181</v>
       </c>
       <c r="C122">
-        <f>D122*15*15</f>
         <v>450</v>
       </c>
-      <c r="D122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D122" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>-1</v>
       </c>
@@ -2144,14 +2230,13 @@
         <v>180</v>
       </c>
       <c r="C123">
-        <f>D123*15*15</f>
         <v>450</v>
       </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D123" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>-1</v>
       </c>
@@ -2159,14 +2244,13 @@
         <v>179</v>
       </c>
       <c r="C124">
-        <f>D124*15*15</f>
         <v>450</v>
       </c>
-      <c r="D124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D124" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>-1</v>
       </c>
@@ -2174,14 +2258,13 @@
         <v>174</v>
       </c>
       <c r="C125">
-        <f>D125*15*15</f>
         <v>225</v>
       </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D125" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>-1</v>
       </c>
@@ -2189,14 +2272,13 @@
         <v>173</v>
       </c>
       <c r="C126">
-        <f>D126*15*15</f>
         <v>225</v>
       </c>
-      <c r="D126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D126" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>-1</v>
       </c>
@@ -2204,14 +2286,13 @@
         <v>170</v>
       </c>
       <c r="C127">
-        <f>D127*15*15</f>
         <v>450</v>
       </c>
-      <c r="D127">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D127" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>-1</v>
       </c>
@@ -2219,14 +2300,13 @@
         <v>169</v>
       </c>
       <c r="C128">
-        <f>D128*15*15</f>
         <v>450</v>
       </c>
-      <c r="D128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D128" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>-1</v>
       </c>
@@ -2234,14 +2314,13 @@
         <v>164</v>
       </c>
       <c r="C129">
-        <f>D129*15*15</f>
         <v>225</v>
       </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D129" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>-1</v>
       </c>
@@ -2249,14 +2328,13 @@
         <v>160</v>
       </c>
       <c r="C130">
-        <f>D130*15*15</f>
         <v>675</v>
       </c>
-      <c r="D130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D130" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>-1</v>
       </c>
@@ -2264,14 +2342,13 @@
         <v>137</v>
       </c>
       <c r="C131">
-        <f>D131*15*15</f>
         <v>117.00000000000001</v>
       </c>
-      <c r="D131">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D131" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>-1</v>
       </c>
@@ -2279,14 +2356,13 @@
         <v>135</v>
       </c>
       <c r="C132">
-        <f>D132*15*15</f>
         <v>675</v>
       </c>
-      <c r="D132">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D132" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>-1</v>
       </c>
@@ -2294,14 +2370,13 @@
         <v>133</v>
       </c>
       <c r="C133">
-        <f>D133*15*15</f>
         <v>1125</v>
       </c>
-      <c r="D133">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D133" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>-1</v>
       </c>
@@ -2309,14 +2384,13 @@
         <v>132</v>
       </c>
       <c r="C134">
-        <f>D134*15*15</f>
         <v>117.00000000000001</v>
       </c>
-      <c r="D134">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D134" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>-1</v>
       </c>
@@ -2324,14 +2398,13 @@
         <v>131</v>
       </c>
       <c r="C135">
-        <f>D135*15*15</f>
-        <v>225</v>
-      </c>
-      <c r="D135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+      <c r="D135" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>-1</v>
       </c>
@@ -2339,14 +2412,13 @@
         <v>130</v>
       </c>
       <c r="C136">
-        <f>D136*15*15</f>
         <v>225</v>
       </c>
-      <c r="D136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D136" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>-1</v>
       </c>
@@ -2354,14 +2426,13 @@
         <v>127</v>
       </c>
       <c r="C137">
-        <f>D137*15*15</f>
         <v>225</v>
       </c>
-      <c r="D137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D137" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>-1</v>
       </c>
@@ -2369,14 +2440,13 @@
         <v>105</v>
       </c>
       <c r="C138">
-        <f>D138*15*15</f>
         <v>675</v>
       </c>
-      <c r="D138">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D138" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>-1</v>
       </c>
@@ -2384,14 +2454,13 @@
         <v>104</v>
       </c>
       <c r="C139">
-        <f>D139*15*15</f>
         <v>900</v>
       </c>
-      <c r="D139">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D139" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>-1</v>
       </c>
@@ -2399,14 +2468,13 @@
         <v>102</v>
       </c>
       <c r="C140">
-        <f>D140*15*15</f>
         <v>900</v>
       </c>
-      <c r="D140">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D140" s="2">
+        <v>244.29967426710098</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>-1</v>
       </c>
@@ -2414,14 +2482,13 @@
         <v>101</v>
       </c>
       <c r="C141">
-        <f>D141*15*15</f>
         <v>675</v>
       </c>
-      <c r="D141">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D141" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>-1</v>
       </c>
@@ -2429,28 +2496,368 @@
         <v>100</v>
       </c>
       <c r="C142">
-        <f>D142*15*15</f>
         <v>225</v>
       </c>
-      <c r="D142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A145"/>
+      <c r="D142" s="2">
+        <v>48.859934853420192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>10</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>9999999</v>
+      </c>
+      <c r="D143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>10</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144">
+        <v>9999999</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>10</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C145">
+        <v>9999999</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>10</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146">
+        <v>9999999</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>10</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C147">
+        <v>9999999</v>
+      </c>
+      <c r="D147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>10</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>9999999</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>10</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>9999999</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>10</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150">
+        <v>9999999</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>10</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151">
+        <v>9999999</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>10</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152">
+        <v>9999999</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>10</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153">
+        <v>9999999</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>10</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>9999999</v>
+      </c>
+      <c r="D154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>10</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C155">
+        <v>9999999</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>10</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C156">
+        <v>9999999</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>10</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157">
+        <v>9999999</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>10</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158">
+        <v>9999999</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>10</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159">
+        <v>9999999</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>10</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160">
+        <v>9999999</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>10</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161">
+        <v>9999999</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>10</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162">
+        <v>9999999</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>10</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C163">
+        <v>9999999</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>10</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164">
+        <v>9999999</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>10</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C165">
+        <v>9999999</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>10</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166">
+        <v>9999999</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>10</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167">
+        <v>9999999</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B384">
+  <sortState ref="A1:B383">
     <sortCondition descending="1" ref="A49"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B127:B142 B1:B123 B147:B1048576">
+  <conditionalFormatting sqref="B168:B1048576 B127:B142 B1:B123">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
